--- a/data/trans_camb/P25_6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_6-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 2,57</t>
+          <t>-8,14; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 4,48</t>
+          <t>-9,62; 6,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 1,38</t>
+          <t>-8,55; 10,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 6,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 7,17</t>
+          <t>-10,0; 5,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,47</t>
+          <t>-8,1; 7,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,7</t>
+          <t>-6,1; 12,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 4,26</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 5,31</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 9,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-24,48%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,79%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 28,17</t>
+          <t>-47,27; 97,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 47,97</t>
+          <t>-50,84; 86,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 14,75</t>
+          <t>-52,46; 128,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 60,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 68,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 61,75</t>
+          <t>-45,83; 53,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 21,44</t>
+          <t>-36,39; 67,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 42,36</t>
+          <t>-30,06; 113,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 24,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-40,17; 41,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,12; 50,8</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-27,75; 80,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,7</t>
+          <t>-4,91; 1,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,02</t>
+          <t>-5,48; 0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,92</t>
+          <t>-4,46; 2,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,51</t>
+          <t>-5,3; 1,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,02</t>
+          <t>-3,9; 4,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,14</t>
+          <t>-2,66; 5,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 0,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 1,95</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 2,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,61%</t>
+          <t>-20,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-27,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>-21,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,51%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-20,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 48,12</t>
+          <t>-56,96; 41,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,04; 60,77</t>
+          <t>-63,64; 19,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 88,05</t>
+          <t>-58,34; 56,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 67,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 173,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 67,12</t>
+          <t>-68,63; 73,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 31,64</t>
+          <t>-58,61; 133,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 61,86</t>
+          <t>-42,15; 196,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 49,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-52,32; 23,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-44,75; 52,2</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-39,65; 66,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 1,57</t>
+          <t>-6,53; 2,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,81</t>
+          <t>-5,12; 4,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 1,83</t>
+          <t>-4,2; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,31</t>
+          <t>-0,43; 3,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,62</t>
+          <t>-1,68; 1,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,46</t>
+          <t>-0,65; 3,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 2,35</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,54</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-23,39%</t>
+          <t>-10,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,44%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>128,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>108,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>102,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>40,4%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 53,21</t>
+          <t>-71,86; 113,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 156,49</t>
+          <t>-58,34; 149,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,93; 64,71</t>
+          <t>-61,76; 199,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 665,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,65; 404,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 766,72</t>
+          <t>-36,38; 915,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,04; 81,7</t>
+          <t>-75,36; 394,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 118,81</t>
+          <t>-50,78; 808,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 93,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-55,32; 122,53</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-50,85; 141,88</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-42,9; 190,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,09</t>
+          <t>-5,5; 0,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,69</t>
+          <t>-2,77; 4,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,07</t>
+          <t>-2,2; 4,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,17</t>
+          <t>-3,02; 4,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 1,53</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 3,41</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,44%</t>
+          <t>-44,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,7%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-12,24%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 21,05</t>
+          <t>-72,8; 9,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 40,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 36,4</t>
+          <t>-38,3; 99,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 56,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 68,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 90,91</t>
+          <t>-32,36; 113,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 42,6</t>
+          <t>-42,79; 102,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 42,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-43,61; 32,45</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-29,18; 63,95</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 0,95</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 1,76</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 2,46</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 2,37</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 3,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 4,29</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 1,04</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 2,02</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 2,98</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-16,06%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>36,97%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-5,14%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-39,47; 18,76</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-29,52; 33,91</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-26,23; 43,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-24,07; 50,09</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 75,96</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 91,59</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-24,52; 20,13</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 38,82</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 54,26</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
